--- a/Task_Calculation.xlsx
+++ b/Task_Calculation.xlsx
@@ -587,13 +587,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>313464</v>
+        <v>316508</v>
       </c>
       <c r="B2" t="n">
-        <v>1474</v>
+        <v>1481</v>
       </c>
       <c r="C2" t="n">
-        <v>84085</v>
+        <v>85132</v>
       </c>
       <c r="D2" t="n">
         <v>27</v>
@@ -679,13 +679,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>313465</v>
+        <v>316509</v>
       </c>
       <c r="B3" t="n">
-        <v>1474</v>
+        <v>1481</v>
       </c>
       <c r="C3" t="n">
-        <v>84085</v>
+        <v>85132</v>
       </c>
       <c r="D3" t="n">
         <v>23</v>
@@ -771,13 +771,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>313466</v>
+        <v>316510</v>
       </c>
       <c r="B4" t="n">
-        <v>1474</v>
+        <v>1481</v>
       </c>
       <c r="C4" t="n">
-        <v>84085</v>
+        <v>85132</v>
       </c>
       <c r="D4" t="n">
         <v>25</v>
